--- a/GPR/results_f/virtual_samples_RBF.xlsx
+++ b/GPR/results_f/virtual_samples_RBF.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.918130017950025</v>
+        <v>1.918130019596231</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>1.676176793113737</v>
+        <v>1.676176794957704</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.993528164807924</v>
+        <v>2.993528165575121</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>2.674028585653915</v>
+        <v>2.674028586682256</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.644621501383805</v>
+        <v>2.644621502436189</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.545747695887608</v>
+        <v>1.545747694424378</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" t="n">
-        <v>1.308675513888832</v>
+        <v>1.308675512377143</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2.599451567720319</v>
+        <v>2.599451566472505</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.75</v>
       </c>
       <c r="C10" t="n">
-        <v>2.286397408962546</v>
+        <v>2.286397407650734</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.257583502784196</v>
+        <v>2.257583501466499</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5140178414083589</v>
+        <v>0.5140178434112743</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2769456245099031</v>
+        <v>0.2769456264643548</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>1.567721715540637</v>
+        <v>1.567721717758969</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.75</v>
       </c>
       <c r="C15" t="n">
-        <v>1.25466751958361</v>
+        <v>1.25466752173795</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.225853648304947</v>
+        <v>1.225853650453392</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.525959539245562</v>
+        <v>1.525959535414295</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.25</v>
       </c>
       <c r="C18" t="n">
-        <v>1.284006304481252</v>
+        <v>1.284006300847739</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.601357686757629</v>
+        <v>2.601357682047345</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.75</v>
       </c>
       <c r="C20" t="n">
-        <v>2.28185809702142</v>
+        <v>2.281858092572295</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2.252451022679343</v>
+        <v>2.252451018254253</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.125</v>
       </c>
       <c r="C22" t="n">
-        <v>1.335036519081406</v>
+        <v>1.335036515748568</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.125</v>
       </c>
       <c r="C23" t="n">
-        <v>1.482862307205327</v>
+        <v>1.482862303751653</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.125</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5051752734296588</v>
+        <v>0.5051752707751351</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.125</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2530463593764354</v>
+        <v>0.2530463569279888</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.125</v>
       </c>
       <c r="C26" t="n">
-        <v>2.149545291875878</v>
+        <v>2.149545287877266</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.375</v>
       </c>
       <c r="C27" t="n">
-        <v>2.22153055703799</v>
+        <v>2.221530557979408</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.375</v>
       </c>
       <c r="C28" t="n">
-        <v>2.366374287679373</v>
+        <v>2.366374288650407</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.375</v>
       </c>
       <c r="C29" t="n">
-        <v>1.40841027872859</v>
+        <v>1.408410279503777</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.375</v>
       </c>
       <c r="C30" t="n">
-        <v>1.161367718813487</v>
+        <v>1.161367719538161</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.375</v>
       </c>
       <c r="C31" t="n">
-        <v>3.019608040931487</v>
+        <v>3.019608042036056</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.625</v>
       </c>
       <c r="C32" t="n">
-        <v>2.845669147328466</v>
+        <v>2.845669147931386</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.625</v>
       </c>
       <c r="C33" t="n">
-        <v>2.990512887122063</v>
+        <v>2.990512887754598</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.625</v>
       </c>
       <c r="C34" t="n">
-        <v>2.03254886841602</v>
+        <v>2.032548868852708</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.625</v>
       </c>
       <c r="C35" t="n">
-        <v>1.785506318256169</v>
+        <v>1.785506318642351</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="n">
-        <v>3.643746631221965</v>
+        <v>3.643746631988038</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.875</v>
       </c>
       <c r="C37" t="n">
-        <v>2.310617597246057</v>
+        <v>2.310617594456716</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.875</v>
       </c>
       <c r="C38" t="n">
-        <v>2.458443392054737</v>
+        <v>2.458443389144554</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.875</v>
       </c>
       <c r="C39" t="n">
-        <v>1.480756351153849</v>
+        <v>1.480756349042826</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.875</v>
       </c>
       <c r="C40" t="n">
-        <v>1.228627444225842</v>
+        <v>1.228627442320892</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.875</v>
       </c>
       <c r="C41" t="n">
-        <v>3.125126370040526</v>
+        <v>3.125126366585421</v>
       </c>
     </row>
   </sheetData>
